--- a/po_analysis_by_asin/B0BH79FMW3_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH79FMW3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,39 +452,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45390</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45411</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45418</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45432</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -492,65 +492,369 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45453</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45460</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45481</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45509</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45523</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45537</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45600</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45607</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B52" t="n">
         <v>12</v>
       </c>
     </row>
@@ -565,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,65 +891,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45597</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>36</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BH79FMW3_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH79FMW3_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -885,7 +886,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1047,6 +1048,873 @@
       </c>
       <c r="B21" t="n">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-49.89490641956051</v>
+      </c>
+      <c r="D2" t="n">
+        <v>101.909528447338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-51.31606627111479</v>
+      </c>
+      <c r="D3" t="n">
+        <v>112.8398467253717</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-50.03271220138149</v>
+      </c>
+      <c r="D4" t="n">
+        <v>109.6625579416308</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-42.54114083705946</v>
+      </c>
+      <c r="D5" t="n">
+        <v>110.7098854824107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-51.38810454647714</v>
+      </c>
+      <c r="D6" t="n">
+        <v>107.7133664759144</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-45.03474075204286</v>
+      </c>
+      <c r="D7" t="n">
+        <v>107.0779524316076</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-42.61386050813437</v>
+      </c>
+      <c r="D8" t="n">
+        <v>109.2448052717468</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-41.24288548441663</v>
+      </c>
+      <c r="D9" t="n">
+        <v>110.9238315628198</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-39.04778056735849</v>
+      </c>
+      <c r="D10" t="n">
+        <v>110.8171020317638</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>37</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-43.25611666063916</v>
+      </c>
+      <c r="D11" t="n">
+        <v>113.7620481658415</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>38</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-41.2749439761702</v>
+      </c>
+      <c r="D12" t="n">
+        <v>116.5972261268139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-29.24159212466549</v>
+      </c>
+      <c r="D13" t="n">
+        <v>116.5466428230553</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-37.85625813746935</v>
+      </c>
+      <c r="D14" t="n">
+        <v>116.6545243590602</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-36.69024125719639</v>
+      </c>
+      <c r="D15" t="n">
+        <v>112.827659620333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>41</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-31.21918941550126</v>
+      </c>
+      <c r="D16" t="n">
+        <v>112.0631773910582</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>42</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-30.64664986305803</v>
+      </c>
+      <c r="D17" t="n">
+        <v>115.9067315714838</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>42</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-39.4751995546424</v>
+      </c>
+      <c r="D18" t="n">
+        <v>126.2061795680067</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>43</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-31.17846389244074</v>
+      </c>
+      <c r="D19" t="n">
+        <v>120.4132195169913</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>44</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-34.46682367933708</v>
+      </c>
+      <c r="D20" t="n">
+        <v>116.8136801992978</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-42.5757516763147</v>
+      </c>
+      <c r="D21" t="n">
+        <v>127.7953892929935</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-35.5452020368699</v>
+      </c>
+      <c r="D22" t="n">
+        <v>126.7711089423088</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>46</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-34.61601508029364</v>
+      </c>
+      <c r="D23" t="n">
+        <v>125.7203030825644</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>46</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-29.7035559832001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>119.2032929041421</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>47</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-33.32011467807712</v>
+      </c>
+      <c r="D25" t="n">
+        <v>129.5203385018096</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>48</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-34.99403417672711</v>
+      </c>
+      <c r="D26" t="n">
+        <v>126.4162272224346</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>49</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-26.37043692461325</v>
+      </c>
+      <c r="D27" t="n">
+        <v>127.7366223483436</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>50</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-21.06901476261864</v>
+      </c>
+      <c r="D28" t="n">
+        <v>130.3851240583466</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>51</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-29.20111171345718</v>
+      </c>
+      <c r="D29" t="n">
+        <v>126.9459960643389</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>52</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-26.78233349041281</v>
+      </c>
+      <c r="D30" t="n">
+        <v>124.4373469815517</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>52</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-25.60434128498783</v>
+      </c>
+      <c r="D31" t="n">
+        <v>132.4107615851609</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>53</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-24.20865596292498</v>
+      </c>
+      <c r="D32" t="n">
+        <v>131.4833424285025</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>54</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-21.75845090227321</v>
+      </c>
+      <c r="D33" t="n">
+        <v>131.3759150665537</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>55</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-25.11695178559205</v>
+      </c>
+      <c r="D34" t="n">
+        <v>130.1560740185786</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>56</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-26.57669815423872</v>
+      </c>
+      <c r="D35" t="n">
+        <v>135.8970339215611</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>56</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-23.6167641217647</v>
+      </c>
+      <c r="D36" t="n">
+        <v>141.6583889214229</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>57</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-19.33126697019238</v>
+      </c>
+      <c r="D37" t="n">
+        <v>137.2183980846697</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>58</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-23.81338295140746</v>
+      </c>
+      <c r="D38" t="n">
+        <v>138.6922338855085</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>58</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-16.19077781882645</v>
+      </c>
+      <c r="D39" t="n">
+        <v>136.9651304145952</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>60</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-17.58087222865679</v>
+      </c>
+      <c r="D40" t="n">
+        <v>136.9793031250102</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>70</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-10.04312266915973</v>
+      </c>
+      <c r="D41" t="n">
+        <v>148.8420886642375</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>72</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-3.144210458688549</v>
+      </c>
+      <c r="D42" t="n">
+        <v>151.2718374433067</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>72</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-5.633035759282486</v>
+      </c>
+      <c r="D43" t="n">
+        <v>152.42369205045</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>74</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-6.047972382884622</v>
+      </c>
+      <c r="D44" t="n">
+        <v>147.7805581851242</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>76</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.7048697757631891</v>
+      </c>
+      <c r="D45" t="n">
+        <v>155.5872998983812</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>76</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-2.282084810069696</v>
+      </c>
+      <c r="D46" t="n">
+        <v>155.1876242031898</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>78</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.642002254232882</v>
+      </c>
+      <c r="D47" t="n">
+        <v>156.8084398052961</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>81</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.6315199050284386</v>
+      </c>
+      <c r="D48" t="n">
+        <v>158.377147679623</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>82</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.546789547348466</v>
+      </c>
+      <c r="D49" t="n">
+        <v>162.1547665090987</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>84</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.214253805073339</v>
+      </c>
+      <c r="D50" t="n">
+        <v>159.3003237015926</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>90</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10.51676987940798</v>
+      </c>
+      <c r="D51" t="n">
+        <v>166.1628049194937</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>90</v>
+      </c>
+      <c r="C52" t="n">
+        <v>17.15441029620325</v>
+      </c>
+      <c r="D52" t="n">
+        <v>168.1251834002128</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>91</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7.997882536495004</v>
+      </c>
+      <c r="D53" t="n">
+        <v>165.2555988200743</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>92</v>
+      </c>
+      <c r="C54" t="n">
+        <v>17.05040740663026</v>
+      </c>
+      <c r="D54" t="n">
+        <v>171.9695228707895</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>92</v>
+      </c>
+      <c r="C55" t="n">
+        <v>13.65978097776628</v>
+      </c>
+      <c r="D55" t="n">
+        <v>171.3790914716311</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>93</v>
+      </c>
+      <c r="C56" t="n">
+        <v>15.48231670878632</v>
+      </c>
+      <c r="D56" t="n">
+        <v>169.3324778429131</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>94</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12.35805771607907</v>
+      </c>
+      <c r="D57" t="n">
+        <v>166.5294530541681</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>94</v>
+      </c>
+      <c r="C58" t="n">
+        <v>12.75950990735967</v>
+      </c>
+      <c r="D58" t="n">
+        <v>173.6608185928251</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>95</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13.39032161284346</v>
+      </c>
+      <c r="D59" t="n">
+        <v>169.2833301749655</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>96</v>
+      </c>
+      <c r="C60" t="n">
+        <v>20.02274630533843</v>
+      </c>
+      <c r="D60" t="n">
+        <v>170.3240457420945</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BH79FMW3_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH79FMW3_po_data.xlsx
@@ -1061,7 +1061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,16 +1080,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1098,12 +1088,6 @@
       <c r="B2" t="n">
         <v>27</v>
       </c>
-      <c r="C2" t="n">
-        <v>-49.89490641956051</v>
-      </c>
-      <c r="D2" t="n">
-        <v>101.909528447338</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1112,12 +1096,6 @@
       <c r="B3" t="n">
         <v>28</v>
       </c>
-      <c r="C3" t="n">
-        <v>-51.31606627111479</v>
-      </c>
-      <c r="D3" t="n">
-        <v>112.8398467253717</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1126,12 +1104,6 @@
       <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
-        <v>-50.03271220138149</v>
-      </c>
-      <c r="D4" t="n">
-        <v>109.6625579416308</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1140,12 +1112,6 @@
       <c r="B5" t="n">
         <v>32</v>
       </c>
-      <c r="C5" t="n">
-        <v>-42.54114083705946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>110.7098854824107</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1154,12 +1120,6 @@
       <c r="B6" t="n">
         <v>32</v>
       </c>
-      <c r="C6" t="n">
-        <v>-51.38810454647714</v>
-      </c>
-      <c r="D6" t="n">
-        <v>107.7133664759144</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1168,12 +1128,6 @@
       <c r="B7" t="n">
         <v>33</v>
       </c>
-      <c r="C7" t="n">
-        <v>-45.03474075204286</v>
-      </c>
-      <c r="D7" t="n">
-        <v>107.0779524316076</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1182,12 +1136,6 @@
       <c r="B8" t="n">
         <v>35</v>
       </c>
-      <c r="C8" t="n">
-        <v>-42.61386050813437</v>
-      </c>
-      <c r="D8" t="n">
-        <v>109.2448052717468</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1196,12 +1144,6 @@
       <c r="B9" t="n">
         <v>36</v>
       </c>
-      <c r="C9" t="n">
-        <v>-41.24288548441663</v>
-      </c>
-      <c r="D9" t="n">
-        <v>110.9238315628198</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1210,12 +1152,6 @@
       <c r="B10" t="n">
         <v>36</v>
       </c>
-      <c r="C10" t="n">
-        <v>-39.04778056735849</v>
-      </c>
-      <c r="D10" t="n">
-        <v>110.8171020317638</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1224,12 +1160,6 @@
       <c r="B11" t="n">
         <v>37</v>
       </c>
-      <c r="C11" t="n">
-        <v>-43.25611666063916</v>
-      </c>
-      <c r="D11" t="n">
-        <v>113.7620481658415</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1238,12 +1168,6 @@
       <c r="B12" t="n">
         <v>38</v>
       </c>
-      <c r="C12" t="n">
-        <v>-41.2749439761702</v>
-      </c>
-      <c r="D12" t="n">
-        <v>116.5972261268139</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1252,12 +1176,6 @@
       <c r="B13" t="n">
         <v>39</v>
       </c>
-      <c r="C13" t="n">
-        <v>-29.24159212466549</v>
-      </c>
-      <c r="D13" t="n">
-        <v>116.5466428230553</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1266,12 +1184,6 @@
       <c r="B14" t="n">
         <v>40</v>
       </c>
-      <c r="C14" t="n">
-        <v>-37.85625813746935</v>
-      </c>
-      <c r="D14" t="n">
-        <v>116.6545243590602</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1280,12 +1192,6 @@
       <c r="B15" t="n">
         <v>40</v>
       </c>
-      <c r="C15" t="n">
-        <v>-36.69024125719639</v>
-      </c>
-      <c r="D15" t="n">
-        <v>112.827659620333</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1294,12 +1200,6 @@
       <c r="B16" t="n">
         <v>41</v>
       </c>
-      <c r="C16" t="n">
-        <v>-31.21918941550126</v>
-      </c>
-      <c r="D16" t="n">
-        <v>112.0631773910582</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1308,12 +1208,6 @@
       <c r="B17" t="n">
         <v>42</v>
       </c>
-      <c r="C17" t="n">
-        <v>-30.64664986305803</v>
-      </c>
-      <c r="D17" t="n">
-        <v>115.9067315714838</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1322,12 +1216,6 @@
       <c r="B18" t="n">
         <v>42</v>
       </c>
-      <c r="C18" t="n">
-        <v>-39.4751995546424</v>
-      </c>
-      <c r="D18" t="n">
-        <v>126.2061795680067</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1336,12 +1224,6 @@
       <c r="B19" t="n">
         <v>43</v>
       </c>
-      <c r="C19" t="n">
-        <v>-31.17846389244074</v>
-      </c>
-      <c r="D19" t="n">
-        <v>120.4132195169913</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1350,12 +1232,6 @@
       <c r="B20" t="n">
         <v>44</v>
       </c>
-      <c r="C20" t="n">
-        <v>-34.46682367933708</v>
-      </c>
-      <c r="D20" t="n">
-        <v>116.8136801992978</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1364,12 +1240,6 @@
       <c r="B21" t="n">
         <v>44</v>
       </c>
-      <c r="C21" t="n">
-        <v>-42.5757516763147</v>
-      </c>
-      <c r="D21" t="n">
-        <v>127.7953892929935</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1378,12 +1248,6 @@
       <c r="B22" t="n">
         <v>45</v>
       </c>
-      <c r="C22" t="n">
-        <v>-35.5452020368699</v>
-      </c>
-      <c r="D22" t="n">
-        <v>126.7711089423088</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1392,12 +1256,6 @@
       <c r="B23" t="n">
         <v>46</v>
       </c>
-      <c r="C23" t="n">
-        <v>-34.61601508029364</v>
-      </c>
-      <c r="D23" t="n">
-        <v>125.7203030825644</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1406,12 +1264,6 @@
       <c r="B24" t="n">
         <v>46</v>
       </c>
-      <c r="C24" t="n">
-        <v>-29.7035559832001</v>
-      </c>
-      <c r="D24" t="n">
-        <v>119.2032929041421</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1420,12 +1272,6 @@
       <c r="B25" t="n">
         <v>47</v>
       </c>
-      <c r="C25" t="n">
-        <v>-33.32011467807712</v>
-      </c>
-      <c r="D25" t="n">
-        <v>129.5203385018096</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1434,12 +1280,6 @@
       <c r="B26" t="n">
         <v>48</v>
       </c>
-      <c r="C26" t="n">
-        <v>-34.99403417672711</v>
-      </c>
-      <c r="D26" t="n">
-        <v>126.4162272224346</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1448,12 +1288,6 @@
       <c r="B27" t="n">
         <v>49</v>
       </c>
-      <c r="C27" t="n">
-        <v>-26.37043692461325</v>
-      </c>
-      <c r="D27" t="n">
-        <v>127.7366223483436</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1462,12 +1296,6 @@
       <c r="B28" t="n">
         <v>50</v>
       </c>
-      <c r="C28" t="n">
-        <v>-21.06901476261864</v>
-      </c>
-      <c r="D28" t="n">
-        <v>130.3851240583466</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1476,12 +1304,6 @@
       <c r="B29" t="n">
         <v>51</v>
       </c>
-      <c r="C29" t="n">
-        <v>-29.20111171345718</v>
-      </c>
-      <c r="D29" t="n">
-        <v>126.9459960643389</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1490,12 +1312,6 @@
       <c r="B30" t="n">
         <v>52</v>
       </c>
-      <c r="C30" t="n">
-        <v>-26.78233349041281</v>
-      </c>
-      <c r="D30" t="n">
-        <v>124.4373469815517</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1504,12 +1320,6 @@
       <c r="B31" t="n">
         <v>52</v>
       </c>
-      <c r="C31" t="n">
-        <v>-25.60434128498783</v>
-      </c>
-      <c r="D31" t="n">
-        <v>132.4107615851609</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1518,12 +1328,6 @@
       <c r="B32" t="n">
         <v>53</v>
       </c>
-      <c r="C32" t="n">
-        <v>-24.20865596292498</v>
-      </c>
-      <c r="D32" t="n">
-        <v>131.4833424285025</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1532,12 +1336,6 @@
       <c r="B33" t="n">
         <v>54</v>
       </c>
-      <c r="C33" t="n">
-        <v>-21.75845090227321</v>
-      </c>
-      <c r="D33" t="n">
-        <v>131.3759150665537</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1546,12 +1344,6 @@
       <c r="B34" t="n">
         <v>55</v>
       </c>
-      <c r="C34" t="n">
-        <v>-25.11695178559205</v>
-      </c>
-      <c r="D34" t="n">
-        <v>130.1560740185786</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1560,12 +1352,6 @@
       <c r="B35" t="n">
         <v>56</v>
       </c>
-      <c r="C35" t="n">
-        <v>-26.57669815423872</v>
-      </c>
-      <c r="D35" t="n">
-        <v>135.8970339215611</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1574,12 +1360,6 @@
       <c r="B36" t="n">
         <v>56</v>
       </c>
-      <c r="C36" t="n">
-        <v>-23.6167641217647</v>
-      </c>
-      <c r="D36" t="n">
-        <v>141.6583889214229</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1588,12 +1368,6 @@
       <c r="B37" t="n">
         <v>57</v>
       </c>
-      <c r="C37" t="n">
-        <v>-19.33126697019238</v>
-      </c>
-      <c r="D37" t="n">
-        <v>137.2183980846697</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1602,12 +1376,6 @@
       <c r="B38" t="n">
         <v>58</v>
       </c>
-      <c r="C38" t="n">
-        <v>-23.81338295140746</v>
-      </c>
-      <c r="D38" t="n">
-        <v>138.6922338855085</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1616,12 +1384,6 @@
       <c r="B39" t="n">
         <v>58</v>
       </c>
-      <c r="C39" t="n">
-        <v>-16.19077781882645</v>
-      </c>
-      <c r="D39" t="n">
-        <v>136.9651304145952</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1630,12 +1392,6 @@
       <c r="B40" t="n">
         <v>60</v>
       </c>
-      <c r="C40" t="n">
-        <v>-17.58087222865679</v>
-      </c>
-      <c r="D40" t="n">
-        <v>136.9793031250102</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1644,12 +1400,6 @@
       <c r="B41" t="n">
         <v>70</v>
       </c>
-      <c r="C41" t="n">
-        <v>-10.04312266915973</v>
-      </c>
-      <c r="D41" t="n">
-        <v>148.8420886642375</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1658,12 +1408,6 @@
       <c r="B42" t="n">
         <v>72</v>
       </c>
-      <c r="C42" t="n">
-        <v>-3.144210458688549</v>
-      </c>
-      <c r="D42" t="n">
-        <v>151.2718374433067</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1672,12 +1416,6 @@
       <c r="B43" t="n">
         <v>72</v>
       </c>
-      <c r="C43" t="n">
-        <v>-5.633035759282486</v>
-      </c>
-      <c r="D43" t="n">
-        <v>152.42369205045</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1686,12 +1424,6 @@
       <c r="B44" t="n">
         <v>74</v>
       </c>
-      <c r="C44" t="n">
-        <v>-6.047972382884622</v>
-      </c>
-      <c r="D44" t="n">
-        <v>147.7805581851242</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1700,12 +1432,6 @@
       <c r="B45" t="n">
         <v>76</v>
       </c>
-      <c r="C45" t="n">
-        <v>-0.7048697757631891</v>
-      </c>
-      <c r="D45" t="n">
-        <v>155.5872998983812</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1714,12 +1440,6 @@
       <c r="B46" t="n">
         <v>76</v>
       </c>
-      <c r="C46" t="n">
-        <v>-2.282084810069696</v>
-      </c>
-      <c r="D46" t="n">
-        <v>155.1876242031898</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1728,12 +1448,6 @@
       <c r="B47" t="n">
         <v>78</v>
       </c>
-      <c r="C47" t="n">
-        <v>2.642002254232882</v>
-      </c>
-      <c r="D47" t="n">
-        <v>156.8084398052961</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1742,12 +1456,6 @@
       <c r="B48" t="n">
         <v>81</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.6315199050284386</v>
-      </c>
-      <c r="D48" t="n">
-        <v>158.377147679623</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1756,12 +1464,6 @@
       <c r="B49" t="n">
         <v>82</v>
       </c>
-      <c r="C49" t="n">
-        <v>9.546789547348466</v>
-      </c>
-      <c r="D49" t="n">
-        <v>162.1547665090987</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1770,12 +1472,6 @@
       <c r="B50" t="n">
         <v>84</v>
       </c>
-      <c r="C50" t="n">
-        <v>4.214253805073339</v>
-      </c>
-      <c r="D50" t="n">
-        <v>159.3003237015926</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1784,12 +1480,6 @@
       <c r="B51" t="n">
         <v>90</v>
       </c>
-      <c r="C51" t="n">
-        <v>10.51676987940798</v>
-      </c>
-      <c r="D51" t="n">
-        <v>166.1628049194937</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1798,12 +1488,6 @@
       <c r="B52" t="n">
         <v>90</v>
       </c>
-      <c r="C52" t="n">
-        <v>17.15441029620325</v>
-      </c>
-      <c r="D52" t="n">
-        <v>168.1251834002128</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1812,12 +1496,6 @@
       <c r="B53" t="n">
         <v>91</v>
       </c>
-      <c r="C53" t="n">
-        <v>7.997882536495004</v>
-      </c>
-      <c r="D53" t="n">
-        <v>165.2555988200743</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1826,12 +1504,6 @@
       <c r="B54" t="n">
         <v>92</v>
       </c>
-      <c r="C54" t="n">
-        <v>17.05040740663026</v>
-      </c>
-      <c r="D54" t="n">
-        <v>171.9695228707895</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1840,12 +1512,6 @@
       <c r="B55" t="n">
         <v>92</v>
       </c>
-      <c r="C55" t="n">
-        <v>13.65978097776628</v>
-      </c>
-      <c r="D55" t="n">
-        <v>171.3790914716311</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1854,12 +1520,6 @@
       <c r="B56" t="n">
         <v>93</v>
       </c>
-      <c r="C56" t="n">
-        <v>15.48231670878632</v>
-      </c>
-      <c r="D56" t="n">
-        <v>169.3324778429131</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1868,12 +1528,6 @@
       <c r="B57" t="n">
         <v>94</v>
       </c>
-      <c r="C57" t="n">
-        <v>12.35805771607907</v>
-      </c>
-      <c r="D57" t="n">
-        <v>166.5294530541681</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1882,12 +1536,6 @@
       <c r="B58" t="n">
         <v>94</v>
       </c>
-      <c r="C58" t="n">
-        <v>12.75950990735967</v>
-      </c>
-      <c r="D58" t="n">
-        <v>173.6608185928251</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1896,12 +1544,6 @@
       <c r="B59" t="n">
         <v>95</v>
       </c>
-      <c r="C59" t="n">
-        <v>13.39032161284346</v>
-      </c>
-      <c r="D59" t="n">
-        <v>169.2833301749655</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1909,12 +1551,6 @@
       </c>
       <c r="B60" t="n">
         <v>96</v>
-      </c>
-      <c r="C60" t="n">
-        <v>20.02274630533843</v>
-      </c>
-      <c r="D60" t="n">
-        <v>170.3240457420945</v>
       </c>
     </row>
   </sheetData>
